--- a/form4/expansao_atualizado_form4v2.xlsx
+++ b/form4/expansao_atualizado_form4v2.xlsx
@@ -119,7 +119,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="53">
+  <fills count="52">
     <fill>
       <patternFill/>
     </fill>
@@ -416,20 +416,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00A020F0"/>
         <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -719,9 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="51" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1780,7 +1771,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -1866,7 +1857,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -1902,7 +1897,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -1938,7 +1937,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -1974,7 +1977,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="62" t="n"/>
+      <c r="E5" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -2010,7 +2017,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -2046,7 +2057,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="62" t="n"/>
+      <c r="E7" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -2082,7 +2097,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -2118,7 +2137,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="62" t="n"/>
+      <c r="E9" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -2154,7 +2177,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="62" t="n"/>
+      <c r="E10" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -2190,7 +2217,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -2226,7 +2257,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -2262,7 +2297,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -2298,7 +2337,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -2334,7 +2377,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -2370,7 +2417,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="62" t="n"/>
+      <c r="E16" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -2406,7 +2457,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="62" t="n"/>
+      <c r="E17" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -2442,7 +2497,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="62" t="n"/>
+      <c r="E18" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -2478,7 +2537,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -2514,7 +2577,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="62" t="n"/>
+      <c r="E20" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -2550,7 +2617,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -2586,7 +2657,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -2622,7 +2697,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -2658,7 +2737,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -2694,7 +2777,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -2730,7 +2817,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="62" t="n"/>
+      <c r="E26" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -2766,7 +2857,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="62" t="n"/>
+      <c r="E27" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -2802,7 +2897,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -2838,7 +2937,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="62" t="n"/>
+      <c r="E29" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -2874,7 +2977,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="62" t="n"/>
+      <c r="E30" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -2910,7 +3017,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="62" t="n"/>
+      <c r="E31" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -2946,7 +3057,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -2982,7 +3097,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -3018,7 +3137,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -3054,7 +3177,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="62" t="n"/>
+      <c r="E35" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -3090,7 +3217,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="62" t="n"/>
+      <c r="E36" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -3126,7 +3257,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="62" t="n"/>
+      <c r="E37" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -3162,7 +3297,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="62" t="n"/>
+      <c r="E38" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -3242,7 +3381,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="62" t="n"/>
+      <c r="E40" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -3278,7 +3421,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="62" t="n"/>
+      <c r="E41" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -3314,7 +3461,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="62" t="n"/>
+      <c r="E42" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -3350,7 +3501,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -3386,7 +3541,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="62" t="n"/>
+      <c r="E44" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -3422,7 +3581,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="62" t="n"/>
+      <c r="E45" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -3458,7 +3621,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -3494,7 +3661,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -3530,7 +3701,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="62" t="n"/>
+      <c r="E48" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -3566,7 +3741,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="62" t="n"/>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -3602,7 +3781,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="62" t="n"/>
+      <c r="E50" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -3638,7 +3821,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -3674,7 +3861,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="62" t="n"/>
+      <c r="E52" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -3710,7 +3901,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -3746,7 +3941,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -3782,7 +3981,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -3818,7 +4021,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="62" t="n"/>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -3854,7 +4061,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="62" t="n"/>
+      <c r="E57" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -3890,7 +4101,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="62" t="n"/>
+      <c r="E58" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -3981,7 +4196,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -4067,7 +4282,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -4103,7 +4322,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -4139,7 +4362,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -4175,7 +4402,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="62" t="n"/>
+      <c r="E5" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -4211,7 +4442,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -4247,7 +4482,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="62" t="n"/>
+      <c r="E7" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -4283,7 +4522,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -4319,7 +4562,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="62" t="n"/>
+      <c r="E9" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -4355,7 +4602,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="62" t="n"/>
+      <c r="E10" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -4391,7 +4642,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -4427,7 +4682,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -4463,7 +4722,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -4499,7 +4762,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -4535,7 +4802,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -4571,7 +4842,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="62" t="n"/>
+      <c r="E16" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -4607,7 +4882,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="62" t="n"/>
+      <c r="E17" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -4643,7 +4922,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="62" t="n"/>
+      <c r="E18" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -4679,7 +4962,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -4715,7 +5002,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="62" t="n"/>
+      <c r="E20" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -4751,7 +5042,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -4787,7 +5082,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -4823,7 +5122,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -4859,7 +5162,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -4895,7 +5202,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -4931,7 +5242,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="62" t="n"/>
+      <c r="E26" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -4967,7 +5282,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="62" t="n"/>
+      <c r="E27" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -5003,7 +5322,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -5039,7 +5362,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="62" t="n"/>
+      <c r="E29" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -5075,7 +5402,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="62" t="n"/>
+      <c r="E30" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -5111,7 +5442,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="62" t="n"/>
+      <c r="E31" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -5147,7 +5482,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -5183,7 +5522,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -5219,7 +5562,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -5255,7 +5602,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="62" t="n"/>
+      <c r="E35" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -5291,7 +5642,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="62" t="n"/>
+      <c r="E36" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -5327,7 +5682,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="62" t="n"/>
+      <c r="E37" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -5363,7 +5722,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="62" t="n"/>
+      <c r="E38" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -5399,7 +5762,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="62" t="n"/>
+      <c r="E39" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -5435,7 +5802,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="62" t="n"/>
+      <c r="E40" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -5471,7 +5842,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="62" t="n"/>
+      <c r="E41" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -5507,7 +5882,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="62" t="n"/>
+      <c r="E42" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -5543,7 +5922,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -5579,7 +5962,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="62" t="n"/>
+      <c r="E44" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -5615,7 +6002,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="62" t="n"/>
+      <c r="E45" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -5651,7 +6042,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -5687,7 +6082,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -5723,7 +6122,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="62" t="n"/>
+      <c r="E48" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -5759,7 +6162,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="62" t="n"/>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -5795,7 +6202,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="62" t="n"/>
+      <c r="E50" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -5831,7 +6242,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -5867,7 +6282,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="62" t="n"/>
+      <c r="E52" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -5903,7 +6322,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -5939,7 +6362,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -5975,7 +6402,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -6011,7 +6442,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="62" t="n"/>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -6047,7 +6482,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="62" t="n"/>
+      <c r="E57" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -6083,7 +6522,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="62" t="n"/>
+      <c r="E58" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -6174,7 +6617,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -6260,7 +6703,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -6296,7 +6743,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -6332,7 +6783,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -6368,7 +6823,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="62" t="n"/>
+      <c r="E5" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -6404,7 +6863,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -6440,7 +6903,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="62" t="n"/>
+      <c r="E7" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -6476,7 +6943,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -6512,7 +6983,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="62" t="n"/>
+      <c r="E9" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -6548,7 +7023,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="62" t="n"/>
+      <c r="E10" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -6584,7 +7063,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -6620,7 +7103,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -6656,7 +7143,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -6692,7 +7183,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -6728,7 +7223,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -6764,7 +7263,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="62" t="n"/>
+      <c r="E16" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -6800,7 +7303,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="62" t="n"/>
+      <c r="E17" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -6836,7 +7343,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="62" t="n"/>
+      <c r="E18" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -6872,7 +7383,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -6908,7 +7423,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="62" t="n"/>
+      <c r="E20" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -6944,7 +7463,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -6980,7 +7503,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -7016,7 +7543,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -7052,7 +7583,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -7088,7 +7623,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -7124,7 +7663,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="62" t="n"/>
+      <c r="E26" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -7160,7 +7703,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="62" t="n"/>
+      <c r="E27" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -7196,7 +7743,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -7232,7 +7783,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="62" t="n"/>
+      <c r="E29" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -7268,7 +7823,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="62" t="n"/>
+      <c r="E30" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -7304,7 +7863,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="62" t="n"/>
+      <c r="E31" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -7340,7 +7903,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -7376,7 +7943,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -7412,7 +7983,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -7448,7 +8023,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="62" t="n"/>
+      <c r="E35" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -7484,7 +8063,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="62" t="n"/>
+      <c r="E36" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -7520,7 +8103,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="62" t="n"/>
+      <c r="E37" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -7556,7 +8143,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="62" t="n"/>
+      <c r="E38" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -7592,7 +8183,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="62" t="n"/>
+      <c r="E39" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -7628,7 +8223,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="62" t="n"/>
+      <c r="E40" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -7664,7 +8263,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="62" t="n"/>
+      <c r="E41" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -7700,7 +8303,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="62" t="n"/>
+      <c r="E42" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -7736,7 +8343,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -7772,7 +8383,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="62" t="n"/>
+      <c r="E44" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -7808,7 +8423,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="62" t="n"/>
+      <c r="E45" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -7844,7 +8463,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -7880,7 +8503,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -7916,7 +8543,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="62" t="n"/>
+      <c r="E48" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -7952,7 +8583,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="62" t="n"/>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -7988,7 +8623,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="62" t="n"/>
+      <c r="E50" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -8024,7 +8663,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -8060,7 +8703,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="62" t="n"/>
+      <c r="E52" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -8096,7 +8743,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -8132,7 +8783,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -8168,7 +8823,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -8204,7 +8863,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="62" t="n"/>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -8240,7 +8903,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="62" t="n"/>
+      <c r="E57" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -8276,7 +8943,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="62" t="n"/>
+      <c r="E58" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -8367,7 +9038,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -8453,7 +9124,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -8489,7 +9164,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -8525,7 +9204,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -8561,7 +9244,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="62" t="n"/>
+      <c r="E5" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -8597,7 +9284,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -8633,7 +9324,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="62" t="n"/>
+      <c r="E7" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -8669,7 +9364,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -8705,7 +9404,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="62" t="n"/>
+      <c r="E9" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -8741,7 +9444,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="62" t="n"/>
+      <c r="E10" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -8777,7 +9484,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -8813,7 +9524,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -8849,7 +9564,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -8885,7 +9604,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -8921,7 +9644,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -8957,7 +9684,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="62" t="n"/>
+      <c r="E16" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -8993,7 +9724,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="62" t="n"/>
+      <c r="E17" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -9029,7 +9764,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="62" t="n"/>
+      <c r="E18" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -9065,7 +9804,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -9101,7 +9844,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="62" t="n"/>
+      <c r="E20" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -9137,7 +9884,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -9173,7 +9924,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -9209,7 +9964,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -9245,7 +10004,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -9281,7 +10044,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -9317,7 +10084,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="62" t="n"/>
+      <c r="E26" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -9353,7 +10124,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="62" t="n"/>
+      <c r="E27" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -9389,7 +10164,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -9425,7 +10204,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="62" t="n"/>
+      <c r="E29" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -9461,7 +10244,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="62" t="n"/>
+      <c r="E30" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -9497,7 +10284,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="62" t="n"/>
+      <c r="E31" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -9533,7 +10324,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -9569,7 +10364,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -9605,7 +10404,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -9641,7 +10444,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="62" t="n"/>
+      <c r="E35" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -9677,7 +10484,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="62" t="n"/>
+      <c r="E36" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -9713,7 +10524,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="62" t="n"/>
+      <c r="E37" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -9749,7 +10564,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="62" t="n"/>
+      <c r="E38" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -9785,7 +10604,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="62" t="n"/>
+      <c r="E39" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -9821,7 +10644,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="62" t="n"/>
+      <c r="E40" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -9857,7 +10684,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="62" t="n"/>
+      <c r="E41" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -9893,7 +10724,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="62" t="n"/>
+      <c r="E42" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -9929,7 +10764,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -9965,7 +10804,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="62" t="n"/>
+      <c r="E44" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -10001,7 +10844,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="62" t="n"/>
+      <c r="E45" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -10037,7 +10884,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -10073,7 +10924,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -10109,7 +10964,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="62" t="n"/>
+      <c r="E48" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -10145,7 +11004,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="62" t="n"/>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -10181,7 +11044,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="62" t="n"/>
+      <c r="E50" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -10217,7 +11084,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -10253,7 +11124,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="62" t="n"/>
+      <c r="E52" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -10289,7 +11164,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -10325,7 +11204,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -10361,7 +11244,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -10397,7 +11284,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="62" t="n"/>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -10433,7 +11324,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="62" t="n"/>
+      <c r="E57" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -10469,7 +11364,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="62" t="n"/>
+      <c r="E58" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -10560,7 +11459,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -10646,7 +11545,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -10682,7 +11585,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -10718,7 +11625,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -10754,7 +11665,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="62" t="n"/>
+      <c r="E5" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -10790,7 +11705,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -10826,7 +11745,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="62" t="n"/>
+      <c r="E7" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -10862,7 +11785,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -10898,7 +11825,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="62" t="n"/>
+      <c r="E9" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -10934,7 +11865,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="62" t="n"/>
+      <c r="E10" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -10970,7 +11905,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -11006,7 +11945,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -11042,7 +11985,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -11078,7 +12025,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -11114,7 +12065,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -11150,7 +12105,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="62" t="n"/>
+      <c r="E16" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -11186,7 +12145,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="62" t="n"/>
+      <c r="E17" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -11222,7 +12185,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="62" t="n"/>
+      <c r="E18" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -11258,7 +12225,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -11294,7 +12265,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="62" t="n"/>
+      <c r="E20" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -11330,7 +12305,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -11366,7 +12345,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -11402,7 +12385,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -11438,7 +12425,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -11474,7 +12465,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -11510,7 +12505,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="62" t="n"/>
+      <c r="E26" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -11546,7 +12545,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="62" t="n"/>
+      <c r="E27" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -11582,7 +12585,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -11618,7 +12625,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="62" t="n"/>
+      <c r="E29" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -11654,7 +12665,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="62" t="n"/>
+      <c r="E30" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -11690,7 +12705,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="62" t="n"/>
+      <c r="E31" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -11726,7 +12745,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -11762,7 +12785,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -11798,7 +12825,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -11834,7 +12865,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="62" t="n"/>
+      <c r="E35" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -11870,7 +12905,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="62" t="n"/>
+      <c r="E36" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -11906,7 +12945,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="62" t="n"/>
+      <c r="E37" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -11942,7 +12985,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="62" t="n"/>
+      <c r="E38" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -11978,7 +13025,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="62" t="n"/>
+      <c r="E39" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -12014,7 +13065,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="62" t="n"/>
+      <c r="E40" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -12050,7 +13105,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="62" t="n"/>
+      <c r="E41" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -12086,7 +13145,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="62" t="n"/>
+      <c r="E42" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -12122,7 +13185,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -12158,7 +13225,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="62" t="n"/>
+      <c r="E44" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -12194,7 +13265,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="62" t="n"/>
+      <c r="E45" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -12230,7 +13305,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -12266,7 +13345,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -12302,7 +13385,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="62" t="n"/>
+      <c r="E48" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -12338,7 +13425,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="62" t="n"/>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -12374,7 +13465,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="62" t="n"/>
+      <c r="E50" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -12410,7 +13505,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -12446,7 +13545,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="62" t="n"/>
+      <c r="E52" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -12482,7 +13585,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -12518,7 +13625,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -12554,7 +13665,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -12590,7 +13705,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="62" t="n"/>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -12626,7 +13745,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="62" t="n"/>
+      <c r="E57" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -12662,7 +13785,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="62" t="n"/>
+      <c r="E58" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -12753,7 +13880,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -12839,7 +13966,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -12875,7 +14006,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -12911,7 +14046,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -12947,7 +14086,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="62" t="n"/>
+      <c r="E5" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -12983,7 +14126,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="62" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -13019,7 +14166,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="62" t="n"/>
+      <c r="E7" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -13055,7 +14206,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -13091,7 +14246,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="62" t="n"/>
+      <c r="E9" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -13127,7 +14286,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="62" t="n"/>
+      <c r="E10" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -13163,7 +14326,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -13199,7 +14366,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -13235,7 +14406,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -13271,7 +14446,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -13307,7 +14486,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -13343,7 +14526,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="62" t="n"/>
+      <c r="E16" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -13379,7 +14566,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="62" t="n"/>
+      <c r="E17" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -13415,7 +14606,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="62" t="n"/>
+      <c r="E18" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -13451,7 +14646,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -13487,7 +14686,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="62" t="n"/>
+      <c r="E20" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -13523,7 +14726,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -13559,7 +14766,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -13595,7 +14806,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -13631,7 +14846,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -13667,7 +14886,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -13703,7 +14926,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="62" t="n"/>
+      <c r="E26" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -13739,7 +14966,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="62" t="n"/>
+      <c r="E27" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -13775,7 +15006,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="62" t="n"/>
+      <c r="E28" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -13811,7 +15046,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="62" t="n"/>
+      <c r="E29" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -13847,7 +15086,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="62" t="n"/>
+      <c r="E30" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -13883,7 +15126,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="62" t="n"/>
+      <c r="E31" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -13919,7 +15166,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -13955,7 +15206,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -13991,7 +15246,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -14027,7 +15286,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="62" t="n"/>
+      <c r="E35" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -14063,7 +15326,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="62" t="n"/>
+      <c r="E36" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -14099,7 +15366,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="62" t="n"/>
+      <c r="E37" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -14135,7 +15406,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="62" t="n"/>
+      <c r="E38" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -14171,7 +15446,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="62" t="n"/>
+      <c r="E39" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -14207,7 +15486,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="62" t="n"/>
+      <c r="E40" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -14243,7 +15526,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="62" t="n"/>
+      <c r="E41" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -14279,7 +15566,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="62" t="n"/>
+      <c r="E42" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -14315,7 +15606,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -14351,7 +15646,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="62" t="n"/>
+      <c r="E44" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -14387,7 +15686,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="62" t="n"/>
+      <c r="E45" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -14423,7 +15726,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -14459,7 +15766,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -14495,7 +15806,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="62" t="n"/>
+      <c r="E48" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -14531,7 +15846,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="62" t="n"/>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -14567,7 +15886,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="62" t="n"/>
+      <c r="E50" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -14603,7 +15926,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -14639,7 +15966,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="62" t="n"/>
+      <c r="E52" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -14675,7 +16006,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -14711,7 +16046,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -14747,7 +16086,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -14783,7 +16126,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="62" t="n"/>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -14819,7 +16166,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="62" t="n"/>
+      <c r="E57" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -14855,7 +16206,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="62" t="n"/>
+      <c r="E58" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -14933,7 +16288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -14945,7 +16300,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -15093,7 +16448,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H3" s="62" t="inlineStr"/>
+      <c r="H3" s="62" t="n"/>
       <c r="I3" s="62" t="inlineStr"/>
       <c r="J3" s="62" t="inlineStr">
         <is>
@@ -15102,54 +16457,9 @@
       </c>
       <c r="K3" s="62" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="71" t="inlineStr">
-        <is>
-          <t>Curitiba</t>
-        </is>
-      </c>
-      <c r="B4" s="62" t="inlineStr">
-        <is>
-          <t>Campo Magro</t>
-        </is>
-      </c>
-      <c r="C4" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
-      </c>
-      <c r="E4" s="62" t="inlineStr">
-        <is>
-          <t>10/02/2025</t>
-        </is>
-      </c>
-      <c r="F4" s="62" t="inlineStr">
-        <is>
-          <t>01.24</t>
-        </is>
-      </c>
-      <c r="G4" s="62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="62" t="inlineStr"/>
-      <c r="I4" s="62" t="inlineStr"/>
-      <c r="J4" s="62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="62" t="inlineStr"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G3">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -15157,7 +16467,7 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -15166,7 +16476,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G2:G4 J2:J4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G2:G3 J2:J3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15180,7 +16490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15196,6 +16506,7 @@
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15232,6 +16543,11 @@
       <c r="G1" s="60" t="inlineStr">
         <is>
           <t>Receita Vendas</t>
+        </is>
+      </c>
+      <c r="H1" s="60" t="inlineStr">
+        <is>
+          <t>Média Utilizada (R$)</t>
         </is>
       </c>
     </row>
@@ -52502,10 +53818,14 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="D19" s="62" t="inlineStr">
+        <is>
+          <t>Tássia Castelli</t>
+        </is>
+      </c>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -53175,7 +54495,7 @@
       </c>
       <c r="D34" s="62" t="inlineStr">
         <is>
-          <t>Rayra Emanuelly da Costa</t>
+          <t>Leticia Framesche</t>
         </is>
       </c>
       <c r="E34" s="65" t="inlineStr">
@@ -53763,7 +55083,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -53850,7 +55170,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="65" t="inlineStr">
@@ -54078,7 +55398,7 @@
         </is>
       </c>
       <c r="D54" s="62" t="n"/>
-      <c r="E54" s="73" t="inlineStr">
+      <c r="E54" s="74" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
         </is>
@@ -54164,9 +55484,9 @@
           <t xml:space="preserve">Diego Batista </t>
         </is>
       </c>
-      <c r="E56" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F56" s="62" t="n"/>
@@ -55215,9 +56535,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -56459,7 +57779,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -56783,9 +58103,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="62" t="n"/>
@@ -57936,9 +59256,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -59176,7 +60496,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -59268,14 +60588,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="74" t="inlineStr">
+      <c r="E49" s="73" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>05/05/2025, 08/04/2025</t>
+          <t>08/04/2025, 05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="66" t="inlineStr">
@@ -59496,7 +60816,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="73" t="inlineStr">
+      <c r="E54" s="74" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
         </is>
@@ -60637,9 +61957,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -61901,7 +63221,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -62209,7 +63529,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="73" t="inlineStr">
+      <c r="E54" s="74" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
         </is>
@@ -63058,7 +64378,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="74" t="inlineStr">
+      <c r="E13" s="73" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -63774,7 +65094,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="74" t="inlineStr">
+      <c r="E29" s="73" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -64574,7 +65894,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -64882,7 +66202,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="74" t="inlineStr">
+      <c r="E54" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -65153,7 +66473,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="69" customWidth="1" min="8" max="8"/>
@@ -65239,9 +66559,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F2" s="62" t="n"/>
@@ -65323,9 +66643,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F4" s="62" t="n"/>
@@ -65422,7 +66742,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H6" s="62" t="n"/>
+      <c r="H6" s="62" t="inlineStr">
+        <is>
+          <t>Correção do fundo de caixa</t>
+        </is>
+      </c>
       <c r="I6" s="62" t="n"/>
       <c r="J6" s="62" t="inlineStr">
         <is>
@@ -65803,12 +67127,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="62" t="n"/>
+      <c r="E15" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t>14/07/2025</t>
+        </is>
+      </c>
       <c r="G15" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65853,9 +67181,9 @@
           <t>02/07/2025</t>
         </is>
       </c>
-      <c r="G16" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G16" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H16" s="62" t="n"/>
@@ -65975,9 +67303,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -66069,9 +67397,9 @@
           <t>08/07/2025</t>
         </is>
       </c>
-      <c r="G21" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G21" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H21" s="62" t="n"/>
@@ -66103,15 +67431,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="62" t="n"/>
-      <c r="G22" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E22" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="G22" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="62" t="n"/>
@@ -66143,15 +67475,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="62" t="n"/>
-      <c r="G23" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E23" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="G23" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H23" s="62" t="n"/>
@@ -66183,15 +67519,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="62" t="n"/>
-      <c r="G24" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E24" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="G24" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H24" s="62" t="n"/>
@@ -66223,12 +67563,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="62" t="n"/>
+      <c r="E25" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
       <c r="G25" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66615,12 +67959,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="62" t="n"/>
+      <c r="E34" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
       <c r="G34" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66838,7 +68186,7 @@
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="G39" s="64" t="inlineStr">
@@ -67021,9 +68369,9 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G43" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="62" t="n"/>
@@ -67143,9 +68491,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E46" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F46" s="62" t="n"/>
@@ -67183,9 +68531,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E47" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F47" s="62" t="n"/>
@@ -67267,9 +68615,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E49" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F49" s="62" t="n"/>
@@ -67278,7 +68626,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H49" s="62" t="n"/>
+      <c r="H49" s="62" t="inlineStr">
+        <is>
+          <t>Não terá lançamento por enquanto, técnica nova.</t>
+        </is>
+      </c>
       <c r="I49" s="62" t="n"/>
       <c r="J49" s="62" t="inlineStr">
         <is>
@@ -67439,12 +68791,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="62" t="n"/>
+      <c r="E53" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="62" t="inlineStr">
+        <is>
+          <t>14/07/2025</t>
+        </is>
+      </c>
       <c r="G53" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67479,9 +68835,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="62" t="n"/>

--- a/form4/expansao_atualizado_form4v2.xlsx
+++ b/form4/expansao_atualizado_form4v2.xlsx
@@ -39,6 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Irregulares'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Discrepantes'!$A$1:$N$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -119,7 +120,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="54">
     <fill>
       <patternFill/>
     </fill>
@@ -426,6 +427,18 @@
         <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -491,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -713,6 +726,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="51" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="48" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="53" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1771,7 +1796,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -1857,11 +1882,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -1897,11 +1918,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -1937,11 +1954,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -1977,11 +1990,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -2017,11 +2026,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -2057,11 +2062,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -2097,11 +2098,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -2137,11 +2134,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -2177,11 +2170,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -2217,11 +2206,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -2257,11 +2242,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -2297,11 +2278,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -2337,11 +2314,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -2377,11 +2350,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -2417,11 +2386,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -2457,11 +2422,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -2497,11 +2458,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -2537,11 +2494,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -2577,11 +2530,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -2617,11 +2566,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -2657,11 +2602,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -2697,11 +2638,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -2737,11 +2674,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -2777,11 +2710,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -2817,11 +2746,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -2857,11 +2782,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -2897,11 +2818,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -2937,11 +2854,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -2977,11 +2890,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -3017,11 +2926,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -3057,11 +2962,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -3097,11 +2998,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -3137,11 +3034,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -3177,11 +3070,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -3217,11 +3106,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -3257,11 +3142,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -3297,11 +3178,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -3381,11 +3258,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -3421,11 +3294,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -3461,11 +3330,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -3501,11 +3366,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -3541,11 +3402,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -3581,11 +3438,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -3621,11 +3474,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -3661,11 +3510,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -3701,11 +3546,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -3741,11 +3582,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -3781,11 +3618,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -3821,11 +3654,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -3861,11 +3690,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -3901,11 +3726,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -3941,11 +3762,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -3981,11 +3798,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -4021,11 +3834,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -4061,11 +3870,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -4101,11 +3906,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -4196,7 +3997,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -4282,11 +4083,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -4322,11 +4119,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -4362,11 +4155,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -4402,11 +4191,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -4442,11 +4227,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -4482,11 +4263,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -4522,11 +4299,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -4562,11 +4335,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -4602,11 +4371,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -4642,11 +4407,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -4682,11 +4443,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -4722,11 +4479,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -4762,11 +4515,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -4802,11 +4551,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -4842,11 +4587,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -4882,11 +4623,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -4922,11 +4659,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -4962,11 +4695,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -5002,11 +4731,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -5042,11 +4767,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -5082,11 +4803,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -5122,11 +4839,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -5162,11 +4875,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -5202,11 +4911,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -5242,11 +4947,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -5282,11 +4983,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -5322,11 +5019,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -5362,11 +5055,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -5402,11 +5091,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -5442,11 +5127,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -5482,11 +5163,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -5522,11 +5199,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -5562,11 +5235,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -5602,11 +5271,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -5642,11 +5307,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -5682,11 +5343,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -5722,11 +5379,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -5762,11 +5415,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -5802,11 +5451,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -5842,11 +5487,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -5882,11 +5523,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -5922,11 +5559,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -5962,11 +5595,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -6002,11 +5631,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -6042,11 +5667,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -6082,11 +5703,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -6122,11 +5739,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -6162,11 +5775,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -6202,11 +5811,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -6242,11 +5847,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -6282,11 +5883,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -6322,11 +5919,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -6362,11 +5955,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -6402,11 +5991,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -6442,11 +6027,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -6482,11 +6063,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -6522,11 +6099,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -6617,7 +6190,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -6703,11 +6276,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -6743,11 +6312,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -6783,11 +6348,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -6823,11 +6384,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -6863,11 +6420,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -6903,11 +6456,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -6943,11 +6492,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -6983,11 +6528,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -7023,11 +6564,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -7063,11 +6600,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -7103,11 +6636,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -7143,11 +6672,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -7183,11 +6708,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -7223,11 +6744,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -7263,11 +6780,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -7303,11 +6816,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -7343,11 +6852,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -7383,11 +6888,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -7423,11 +6924,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -7463,11 +6960,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -7503,11 +6996,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -7543,11 +7032,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -7583,11 +7068,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -7623,11 +7104,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -7663,11 +7140,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -7703,11 +7176,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -7743,11 +7212,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -7783,11 +7248,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -7823,11 +7284,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -7863,11 +7320,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -7903,11 +7356,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -7943,11 +7392,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -7983,11 +7428,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -8023,11 +7464,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -8063,11 +7500,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -8103,11 +7536,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -8143,11 +7572,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -8183,11 +7608,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -8223,11 +7644,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -8263,11 +7680,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -8303,11 +7716,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -8343,11 +7752,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -8383,11 +7788,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -8423,11 +7824,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -8463,11 +7860,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -8503,11 +7896,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -8543,11 +7932,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -8583,11 +7968,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -8623,11 +8004,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -8663,11 +8040,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -8703,11 +8076,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -8743,11 +8112,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -8783,11 +8148,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -8823,11 +8184,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -8863,11 +8220,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -8903,11 +8256,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -8943,11 +8292,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -9038,7 +8383,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -9124,11 +8469,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -9164,11 +8505,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -9204,11 +8541,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -9244,11 +8577,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -9284,11 +8613,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -9324,11 +8649,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -9364,11 +8685,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -9404,11 +8721,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -9444,11 +8757,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -9484,11 +8793,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -9524,11 +8829,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -9564,11 +8865,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -9604,11 +8901,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -9644,11 +8937,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -9684,11 +8973,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -9724,11 +9009,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -9764,11 +9045,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -9804,11 +9081,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -9844,11 +9117,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -9884,11 +9153,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -9924,11 +9189,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -9964,11 +9225,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -10004,11 +9261,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -10044,11 +9297,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -10084,11 +9333,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -10124,11 +9369,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -10164,11 +9405,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -10204,11 +9441,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -10244,11 +9477,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -10284,11 +9513,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -10324,11 +9549,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -10364,11 +9585,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -10404,11 +9621,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -10444,11 +9657,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -10484,11 +9693,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -10524,11 +9729,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -10564,11 +9765,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -10604,11 +9801,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -10644,11 +9837,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -10684,11 +9873,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -10724,11 +9909,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -10764,11 +9945,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -10804,11 +9981,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -10844,11 +10017,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -10884,11 +10053,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -10924,11 +10089,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -10964,11 +10125,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -11004,11 +10161,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -11044,11 +10197,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -11084,11 +10233,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -11124,11 +10269,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -11164,11 +10305,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -11204,11 +10341,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -11244,11 +10377,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -11284,11 +10413,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -11324,11 +10449,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -11364,11 +10485,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -11459,7 +10576,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -11545,11 +10662,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -11585,11 +10698,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -11625,11 +10734,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -11665,11 +10770,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -11705,11 +10806,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -11745,11 +10842,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -11785,11 +10878,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -11825,11 +10914,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -11865,11 +10950,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -11905,11 +10986,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -11945,11 +11022,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -11985,11 +11058,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -12025,11 +11094,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -12065,11 +11130,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -12105,11 +11166,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -12145,11 +11202,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -12185,11 +11238,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -12225,11 +11274,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -12265,11 +11310,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -12305,11 +11346,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -12345,11 +11382,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -12385,11 +11418,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -12425,11 +11454,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -12465,11 +11490,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -12505,11 +11526,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -12545,11 +11562,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -12585,11 +11598,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -12625,11 +11634,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -12665,11 +11670,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -12705,11 +11706,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -12745,11 +11742,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -12785,11 +11778,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -12825,11 +11814,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -12865,11 +11850,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -12905,11 +11886,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -12945,11 +11922,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -12985,11 +11958,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -13025,11 +11994,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -13065,11 +12030,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -13105,11 +12066,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -13145,11 +12102,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -13185,11 +12138,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -13225,11 +12174,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -13265,11 +12210,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -13305,11 +12246,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -13345,11 +12282,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -13385,11 +12318,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -13425,11 +12354,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -13465,11 +12390,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -13505,11 +12426,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -13545,11 +12462,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -13585,11 +12498,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -13625,11 +12534,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -13665,11 +12570,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -13705,11 +12606,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -13745,11 +12642,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -13785,11 +12678,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -13880,7 +12769,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -13966,11 +12855,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -14006,11 +12891,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -14046,11 +12927,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -14086,11 +12963,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
       <c r="G5" s="64" t="inlineStr">
         <is>
@@ -14126,11 +12999,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
       <c r="G6" s="64" t="inlineStr">
         <is>
@@ -14166,11 +13035,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
       <c r="G7" s="64" t="inlineStr">
         <is>
@@ -14206,11 +13071,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -14246,11 +13107,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
       <c r="G9" s="64" t="inlineStr">
         <is>
@@ -14286,11 +13143,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="64" t="inlineStr">
         <is>
@@ -14326,11 +13179,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -14366,11 +13215,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -14406,11 +13251,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -14446,11 +13287,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -14486,11 +13323,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -14526,11 +13359,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
       <c r="G16" s="64" t="inlineStr">
         <is>
@@ -14566,11 +13395,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
       <c r="G17" s="64" t="inlineStr">
         <is>
@@ -14606,11 +13431,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
       <c r="G18" s="64" t="inlineStr">
         <is>
@@ -14646,11 +13467,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -14686,11 +13503,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
       <c r="G20" s="64" t="inlineStr">
         <is>
@@ -14726,11 +13539,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -14766,11 +13575,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -14806,11 +13611,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -14846,11 +13647,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -14886,11 +13683,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -14926,11 +13719,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
       <c r="G26" s="64" t="inlineStr">
         <is>
@@ -14966,11 +13755,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="64" t="inlineStr">
         <is>
@@ -15006,11 +13791,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="64" t="inlineStr">
         <is>
@@ -15046,11 +13827,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="64" t="inlineStr">
         <is>
@@ -15086,11 +13863,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="64" t="inlineStr">
         <is>
@@ -15126,11 +13899,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="64" t="inlineStr">
         <is>
@@ -15166,11 +13935,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -15206,11 +13971,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -15246,11 +14007,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -15286,11 +14043,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
       <c r="G35" s="64" t="inlineStr">
         <is>
@@ -15326,11 +14079,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
       <c r="G36" s="64" t="inlineStr">
         <is>
@@ -15366,11 +14115,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
       <c r="G37" s="64" t="inlineStr">
         <is>
@@ -15406,11 +14151,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
       <c r="G38" s="64" t="inlineStr">
         <is>
@@ -15446,11 +14187,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
       <c r="G39" s="64" t="inlineStr">
         <is>
@@ -15486,11 +14223,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
       <c r="G40" s="64" t="inlineStr">
         <is>
@@ -15526,11 +14259,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
       <c r="G41" s="64" t="inlineStr">
         <is>
@@ -15566,11 +14295,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
       <c r="G42" s="64" t="inlineStr">
         <is>
@@ -15606,11 +14331,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -15646,11 +14367,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="64" t="inlineStr">
         <is>
@@ -15686,11 +14403,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
       <c r="G45" s="64" t="inlineStr">
         <is>
@@ -15726,11 +14439,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -15766,11 +14475,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -15806,11 +14511,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="64" t="inlineStr">
         <is>
@@ -15846,11 +14547,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -15886,11 +14583,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
       <c r="G50" s="64" t="inlineStr">
         <is>
@@ -15926,11 +14619,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -15966,11 +14655,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="64" t="inlineStr">
         <is>
@@ -16006,11 +14691,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -16046,11 +14727,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -16086,11 +14763,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -16126,11 +14799,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
       <c r="G56" s="64" t="inlineStr">
         <is>
@@ -16166,11 +14835,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="64" t="inlineStr">
         <is>
@@ -16206,11 +14871,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
+      <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
       <c r="G58" s="64" t="inlineStr">
         <is>
@@ -16490,7 +15151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16499,14 +15160,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="32" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="39" customWidth="1" min="12" max="12"/>
+    <col width="32" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16542,16 +15209,187 @@
       </c>
       <c r="G1" s="60" t="inlineStr">
         <is>
-          <t>Receita Vendas</t>
+          <t>Receita Vendas (R$)</t>
         </is>
       </c>
       <c r="H1" s="60" t="inlineStr">
         <is>
-          <t>Média Utilizada (R$)</t>
+          <t>Receita Serviços (R$)</t>
+        </is>
+      </c>
+      <c r="I1" s="60" t="inlineStr">
+        <is>
+          <t>Despesas (R$)</t>
+        </is>
+      </c>
+      <c r="J1" s="60" t="inlineStr">
+        <is>
+          <t>Material Reciclado (T)</t>
+        </is>
+      </c>
+      <c r="K1" s="60" t="inlineStr">
+        <is>
+          <t>Rejeito (T)</t>
+        </is>
+      </c>
+      <c r="L1" s="60" t="inlineStr">
+        <is>
+          <t>Total Material Processado (T)</t>
+        </is>
+      </c>
+      <c r="M1" s="60" t="inlineStr">
+        <is>
+          <t>Postos de Trabalho (U)</t>
+        </is>
+      </c>
+      <c r="N1" s="60" t="inlineStr">
+        <is>
+          <t>Renda Média (R$)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="76" t="inlineStr">
+        <is>
+          <t>Paranavaí</t>
+        </is>
+      </c>
+      <c r="B2" s="76" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="C2" s="76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="76" t="inlineStr">
+        <is>
+          <t>Jéssica Bortolozzo</t>
+        </is>
+      </c>
+      <c r="E2" s="76" t="inlineStr">
+        <is>
+          <t>06.25</t>
+        </is>
+      </c>
+      <c r="F2" s="76" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" s="77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="76" t="inlineStr">
+        <is>
+          <t>Paranavaí</t>
+        </is>
+      </c>
+      <c r="B3" s="76" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="C3" s="76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="76" t="inlineStr">
+        <is>
+          <t>Jéssica Bortolozzo</t>
+        </is>
+      </c>
+      <c r="E3" s="76" t="inlineStr">
+        <is>
+          <t>03.25</t>
+        </is>
+      </c>
+      <c r="F3" s="76" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" s="76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -66473,7 +65311,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="69" customWidth="1" min="8" max="8"/>
@@ -66559,9 +65397,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E2" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F2" s="62" t="n"/>
@@ -66643,9 +65481,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E4" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F4" s="62" t="n"/>
@@ -67303,9 +66141,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E19" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -68491,9 +67329,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E46" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F46" s="62" t="n"/>
@@ -68531,9 +67369,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E47" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F47" s="62" t="n"/>
@@ -68615,9 +67453,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E49" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F49" s="62" t="n"/>
@@ -68835,9 +67673,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E54" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F54" s="62" t="n"/>

--- a/form4/expansao_atualizado_form4v2.xlsx
+++ b/form4/expansao_atualizado_form4v2.xlsx
@@ -3398,19 +3398,19 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -3438,7 +3438,7 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:P11"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
@@ -59147,7 +59147,7 @@
     <col width="132" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="92" customWidth="1" min="11" max="11"/>
+    <col width="95" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -59579,7 +59579,7 @@
       </c>
       <c r="K9" s="107" t="inlineStr">
         <is>
-          <t>Aguardando a Juliana voltar de férias para perguntar. A data parece ter sido corrigida.</t>
+          <t>Perguntar para a Diana se é para deletar mesmo. A data de envio parece ter sido corrigida.</t>
         </is>
       </c>
     </row>
@@ -61358,7 +61358,7 @@
       </c>
       <c r="F49" s="107" t="inlineStr">
         <is>
-          <t>05/05/2025, 08/04/2025</t>
+          <t>08/04/2025, 05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="111" t="inlineStr">
@@ -65148,7 +65148,7 @@
       </c>
       <c r="F13" s="107" t="inlineStr">
         <is>
-          <t>10/07/2025, 09/06/2025</t>
+          <t>09/06/2025, 10/07/2025</t>
         </is>
       </c>
       <c r="G13" s="111" t="inlineStr">

--- a/form4/expansao_atualizado_form4v2.xlsx
+++ b/form4/expansao_atualizado_form4v2.xlsx
@@ -3386,8 +3386,8 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="R21:T21"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="K26:L26"/>
@@ -3398,9 +3398,9 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O26:P26"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
@@ -4972,8 +4972,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="107" t="n"/>
-      <c r="F40" s="107" t="n"/>
+      <c r="E40" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="107" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
       <c r="G40" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5296,8 +5304,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="107" t="n"/>
-      <c r="F49" s="107" t="n"/>
+      <c r="E49" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="107" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
       <c r="G49" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5584,8 +5600,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="107" t="n"/>
-      <c r="F57" s="107" t="n"/>
+      <c r="E57" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="107" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
       <c r="G57" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -61358,7 +61382,7 @@
       </c>
       <c r="F49" s="107" t="inlineStr">
         <is>
-          <t>08/04/2025, 05/05/2025</t>
+          <t>05/05/2025, 08/04/2025</t>
         </is>
       </c>
       <c r="G49" s="111" t="inlineStr">
@@ -61371,10 +61395,14 @@
           <t>Excluir ID4577</t>
         </is>
       </c>
-      <c r="I49" s="107" t="n"/>
+      <c r="I49" s="107" t="inlineStr">
+        <is>
+          <t>Deletar ID4577</t>
+        </is>
+      </c>
       <c r="J49" s="107" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K49" s="107" t="n"/>
@@ -65148,12 +65176,12 @@
       </c>
       <c r="F13" s="107" t="inlineStr">
         <is>
-          <t>09/06/2025, 10/07/2025</t>
-        </is>
-      </c>
-      <c r="G13" s="111" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>10/07/2025, 09/06/2025</t>
+        </is>
+      </c>
+      <c r="G13" s="109" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H13" s="107" t="inlineStr">
@@ -65161,7 +65189,11 @@
           <t xml:space="preserve">Não preenchido completo </t>
         </is>
       </c>
-      <c r="I13" s="107" t="n"/>
+      <c r="I13" s="107" t="inlineStr">
+        <is>
+          <t>ID 4868</t>
+        </is>
+      </c>
       <c r="J13" s="107" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65881,10 +65913,14 @@
           <t>excluir o ID 4841</t>
         </is>
       </c>
-      <c r="I29" s="107" t="n"/>
+      <c r="I29" s="107" t="inlineStr">
+        <is>
+          <t>Excluir 4841</t>
+        </is>
+      </c>
       <c r="J29" s="107" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K29" s="107" t="n"/>
@@ -67684,9 +67720,9 @@
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="G10" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G10" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H10" s="107" t="n"/>
@@ -67728,9 +67764,9 @@
           <t>08/07/2025</t>
         </is>
       </c>
-      <c r="G11" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G11" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="107" t="n"/>
@@ -67772,9 +67808,9 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G12" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G12" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H12" s="107" t="n"/>
@@ -67816,12 +67852,16 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G13" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="107" t="n"/>
+      <c r="G13" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H13" s="107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falta Atualizar dados ja falei com tecnica </t>
+        </is>
+      </c>
       <c r="I13" s="107" t="n"/>
       <c r="J13" s="107" t="inlineStr">
         <is>
@@ -67860,9 +67900,9 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G14" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G14" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H14" s="107" t="n"/>
@@ -67904,9 +67944,9 @@
           <t>14/07/2025</t>
         </is>
       </c>
-      <c r="G15" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G15" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H15" s="107" t="n"/>
@@ -67992,9 +68032,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G17" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G17" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H17" s="107" t="n"/>
@@ -68608,9 +68648,9 @@
           <t>02/07/2025</t>
         </is>
       </c>
-      <c r="G31" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G31" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H31" s="107" t="n"/>
@@ -69272,12 +69312,16 @@
         </is>
       </c>
       <c r="F46" s="107" t="n"/>
-      <c r="G46" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H46" s="107" t="n"/>
+      <c r="G46" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H46" s="107" t="inlineStr">
+        <is>
+          <t>Técnico saiu</t>
+        </is>
+      </c>
       <c r="I46" s="107" t="n"/>
       <c r="J46" s="107" t="inlineStr">
         <is>
@@ -69312,12 +69356,16 @@
         </is>
       </c>
       <c r="F47" s="107" t="n"/>
-      <c r="G47" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H47" s="107" t="n"/>
+      <c r="G47" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H47" s="107" t="inlineStr">
+        <is>
+          <t>Técnico saiu</t>
+        </is>
+      </c>
       <c r="I47" s="107" t="n"/>
       <c r="J47" s="107" t="inlineStr">
         <is>
@@ -69356,9 +69404,9 @@
           <t>01/07/2025</t>
         </is>
       </c>
-      <c r="G48" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G48" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H48" s="107" t="n"/>
@@ -69756,9 +69804,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G57" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="107" t="n"/>
@@ -69800,9 +69848,9 @@
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="G58" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G58" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H58" s="107" t="n"/>
